--- a/results/Test03.xlsx
+++ b/results/Test03.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick7_000\Documents\University\ura-btree\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="380" windowWidth="19200" windowHeight="8760" tabRatio="711" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="380" windowWidth="25600" windowHeight="15180" tabRatio="711" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Optimistic_large" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,12 @@
     <sheet name="Constants" sheetId="5" r:id="rId5"/>
     <sheet name="Metrics" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>Writelock-wait</t>
-  </si>
-  <si>
-    <t>Readlock-Aquired</t>
-  </si>
-  <si>
-    <t>Writelock-Aquired</t>
   </si>
   <si>
     <t>Readlock-Failed</t>
@@ -653,35 +647,41 @@
     <t>Smallset:</t>
   </si>
   <si>
-    <t>Read_small_speedup</t>
+    <t>Read_small_wait_ratio</t>
   </si>
   <si>
-    <t>Read_large_speedup</t>
+    <t>Read_large_wait_ratio</t>
   </si>
   <si>
-    <t>Write_small_speedup</t>
+    <t>Write_small_wait_ratio</t>
   </si>
   <si>
-    <t>Write_large_speedup</t>
+    <t>Write_large_wait_ratio</t>
   </si>
   <si>
-    <t>Read_small_lock_ratio</t>
+    <t>Read_small_acquired_ratio</t>
   </si>
   <si>
-    <t>Read_large_lock_ratio</t>
+    <t>Read_large_acquired_ratio</t>
   </si>
   <si>
-    <t>Write_small_lock_ratio</t>
+    <t>Write_small_acquired_ratio</t>
   </si>
   <si>
-    <t>Write_large_lock_ratio</t>
+    <t>Write_large_acquired_ratio</t>
+  </si>
+  <si>
+    <t>Readlock-Acquired</t>
+  </si>
+  <si>
+    <t>Writelock-Acquired</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,6 +812,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1114,7 +1130,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1157,11 +1173,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1190,11 +1208,13 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1261,7 +1281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1296,7 +1316,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1473,7 +1493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1483,17 +1503,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1522,30 +1544,30 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1593,9 +1615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1643,9 +1665,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1693,9 +1715,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1743,9 +1765,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1793,9 +1815,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1843,9 +1865,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -1893,9 +1915,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1943,9 +1965,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1993,9 +2015,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -2043,9 +2065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -2093,9 +2115,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -2143,9 +2165,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -2193,9 +2215,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -2243,9 +2265,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -2293,9 +2315,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2343,9 +2365,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -2393,9 +2415,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -2443,9 +2465,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>16</v>
@@ -2493,9 +2515,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>16</v>
@@ -2543,9 +2565,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>16</v>
@@ -2593,9 +2615,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -2643,9 +2665,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -2693,9 +2715,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -2743,9 +2765,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>16</v>
@@ -2793,9 +2815,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>16</v>
@@ -2843,9 +2865,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -2893,9 +2915,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>16</v>
@@ -2943,9 +2965,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>16</v>
@@ -2993,9 +3015,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>16</v>
@@ -3043,9 +3065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -3093,9 +3115,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -3143,9 +3165,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -3193,9 +3215,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>32</v>
@@ -3243,9 +3265,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -3293,9 +3315,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>32</v>
@@ -3343,9 +3365,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B38">
         <v>32</v>
@@ -3393,9 +3415,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39">
         <v>32</v>
@@ -3443,9 +3465,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B40">
         <v>32</v>
@@ -3493,9 +3515,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>32</v>
@@ -3543,9 +3565,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>32</v>
@@ -3593,9 +3615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>32</v>
@@ -3643,9 +3665,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <v>32</v>
@@ -3693,9 +3715,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>32</v>
@@ -3743,9 +3765,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>32</v>
@@ -3793,9 +3815,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>32</v>
@@ -3843,9 +3865,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>32</v>
@@ -3893,9 +3915,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B49">
         <v>32</v>
@@ -3943,9 +3965,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>32</v>
@@ -3993,9 +4015,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>32</v>
@@ -4043,9 +4065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>32</v>
@@ -4093,9 +4115,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>32</v>
@@ -4143,9 +4165,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>32</v>
@@ -4193,9 +4215,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>32</v>
@@ -4243,9 +4265,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B56">
         <v>32</v>
@@ -4293,9 +4315,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B57">
         <v>32</v>
@@ -4343,9 +4365,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B58">
         <v>32</v>
@@ -4393,9 +4415,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B59">
         <v>32</v>
@@ -4443,9 +4465,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B60">
         <v>32</v>
@@ -4493,9 +4515,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61">
         <v>32</v>
@@ -4543,9 +4565,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B62">
         <v>32</v>
@@ -4593,9 +4615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63">
         <v>32</v>
@@ -4643,9 +4665,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64">
         <v>32</v>
@@ -4695,6 +4717,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4703,18 +4731,18 @@
   <dimension ref="A1:P127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4743,30 +4771,30 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4814,9 +4842,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4864,9 +4892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -4914,9 +4942,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -4964,9 +4992,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -5014,9 +5042,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -5064,9 +5092,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -5114,9 +5142,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -5164,9 +5192,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -5214,9 +5242,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -5264,9 +5292,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -5314,9 +5342,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -5364,9 +5392,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -5414,9 +5442,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -5464,9 +5492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -5514,9 +5542,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -5564,9 +5592,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -5614,9 +5642,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -5664,9 +5692,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -5714,9 +5742,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -5764,9 +5792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -5814,9 +5842,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -5864,9 +5892,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -5914,9 +5942,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -5964,9 +5992,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -6014,9 +6042,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -6064,9 +6092,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -6114,9 +6142,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -6164,9 +6192,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -6214,9 +6242,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -6264,9 +6292,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -6314,9 +6342,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B33">
         <v>16</v>
@@ -6364,9 +6392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B34">
         <v>16</v>
@@ -6414,9 +6442,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -6464,9 +6492,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B36">
         <v>16</v>
@@ -6514,9 +6542,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B37">
         <v>16</v>
@@ -6564,9 +6592,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B38">
         <v>16</v>
@@ -6614,9 +6642,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B39">
         <v>16</v>
@@ -6664,9 +6692,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B40">
         <v>16</v>
@@ -6714,9 +6742,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B41">
         <v>16</v>
@@ -6764,9 +6792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B42">
         <v>16</v>
@@ -6814,9 +6842,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -6864,9 +6892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B44">
         <v>16</v>
@@ -6914,9 +6942,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B45">
         <v>16</v>
@@ -6964,9 +6992,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B46">
         <v>16</v>
@@ -7014,9 +7042,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B47">
         <v>16</v>
@@ -7064,9 +7092,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B48">
         <v>16</v>
@@ -7114,9 +7142,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B49">
         <v>16</v>
@@ -7164,9 +7192,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B50">
         <v>16</v>
@@ -7214,9 +7242,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B51">
         <v>16</v>
@@ -7264,9 +7292,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B52">
         <v>16</v>
@@ -7314,9 +7342,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B53">
         <v>16</v>
@@ -7364,9 +7392,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B54">
         <v>16</v>
@@ -7414,9 +7442,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B55">
         <v>16</v>
@@ -7464,9 +7492,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B56">
         <v>16</v>
@@ -7514,9 +7542,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B57">
         <v>16</v>
@@ -7564,9 +7592,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B58">
         <v>16</v>
@@ -7614,9 +7642,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B59">
         <v>16</v>
@@ -7664,9 +7692,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B60">
         <v>16</v>
@@ -7714,9 +7742,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B61">
         <v>16</v>
@@ -7764,9 +7792,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B62">
         <v>16</v>
@@ -7814,9 +7842,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B63">
         <v>16</v>
@@ -7864,9 +7892,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B64">
         <v>32</v>
@@ -7914,9 +7942,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B65">
         <v>32</v>
@@ -7964,9 +7992,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B66">
         <v>32</v>
@@ -8014,9 +8042,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B67">
         <v>32</v>
@@ -8064,9 +8092,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B68">
         <v>32</v>
@@ -8114,9 +8142,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B69">
         <v>32</v>
@@ -8164,9 +8192,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70">
         <v>32</v>
@@ -8214,9 +8242,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B71">
         <v>32</v>
@@ -8264,9 +8292,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B72">
         <v>32</v>
@@ -8314,9 +8342,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B73">
         <v>32</v>
@@ -8364,9 +8392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B74">
         <v>32</v>
@@ -8414,9 +8442,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B75">
         <v>32</v>
@@ -8464,9 +8492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B76">
         <v>32</v>
@@ -8514,9 +8542,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B77">
         <v>32</v>
@@ -8564,9 +8592,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B78">
         <v>32</v>
@@ -8614,9 +8642,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B79">
         <v>32</v>
@@ -8664,9 +8692,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B80">
         <v>32</v>
@@ -8714,9 +8742,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B81">
         <v>32</v>
@@ -8764,9 +8792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B82">
         <v>32</v>
@@ -8814,9 +8842,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B83">
         <v>32</v>
@@ -8864,9 +8892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B84">
         <v>32</v>
@@ -8914,9 +8942,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B85">
         <v>32</v>
@@ -8964,9 +8992,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B86">
         <v>32</v>
@@ -9014,9 +9042,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B87">
         <v>32</v>
@@ -9064,9 +9092,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B88">
         <v>32</v>
@@ -9114,9 +9142,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B89">
         <v>32</v>
@@ -9164,9 +9192,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B90">
         <v>32</v>
@@ -9214,9 +9242,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>32</v>
@@ -9264,9 +9292,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B92">
         <v>32</v>
@@ -9314,9 +9342,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B93">
         <v>32</v>
@@ -9364,9 +9392,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B94">
         <v>32</v>
@@ -9414,9 +9442,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B95">
         <v>32</v>
@@ -9464,9 +9492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B96">
         <v>32</v>
@@ -9514,9 +9542,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B97">
         <v>32</v>
@@ -9564,9 +9592,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B98">
         <v>32</v>
@@ -9614,9 +9642,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>32</v>
@@ -9664,9 +9692,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>32</v>
@@ -9714,9 +9742,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B101">
         <v>32</v>
@@ -9764,9 +9792,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>32</v>
@@ -9814,9 +9842,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>32</v>
@@ -9864,9 +9892,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B104">
         <v>32</v>
@@ -9914,9 +9942,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B105">
         <v>32</v>
@@ -9964,9 +9992,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B106">
         <v>32</v>
@@ -10014,9 +10042,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B107">
         <v>32</v>
@@ -10064,9 +10092,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B108">
         <v>32</v>
@@ -10114,9 +10142,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B109">
         <v>32</v>
@@ -10164,9 +10192,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B110">
         <v>32</v>
@@ -10214,9 +10242,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B111">
         <v>32</v>
@@ -10264,9 +10292,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B112">
         <v>32</v>
@@ -10314,9 +10342,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B113">
         <v>32</v>
@@ -10364,9 +10392,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B114">
         <v>32</v>
@@ -10414,9 +10442,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B115">
         <v>32</v>
@@ -10464,9 +10492,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B116">
         <v>32</v>
@@ -10514,9 +10542,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B117">
         <v>32</v>
@@ -10564,9 +10592,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B118">
         <v>32</v>
@@ -10614,9 +10642,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B119">
         <v>32</v>
@@ -10664,9 +10692,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B120">
         <v>32</v>
@@ -10714,9 +10742,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16">
       <c r="A121" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B121">
         <v>32</v>
@@ -10764,9 +10792,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16">
       <c r="A122" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B122">
         <v>32</v>
@@ -10814,9 +10842,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16">
       <c r="A123" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B123">
         <v>32</v>
@@ -10864,9 +10892,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16">
       <c r="A124" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B124">
         <v>32</v>
@@ -10914,9 +10942,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16">
       <c r="A125" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B125">
         <v>32</v>
@@ -10964,9 +10992,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16">
       <c r="A126" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B126">
         <v>32</v>
@@ -11014,9 +11042,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16">
       <c r="A127" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B127">
         <v>32</v>
@@ -11066,6 +11094,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11073,11 +11106,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11106,30 +11141,30 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11177,9 +11212,9 @@
         <v>752501567</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -11227,9 +11262,9 @@
         <v>376250854</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -11277,9 +11312,9 @@
         <v>376250809</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -11327,9 +11362,9 @@
         <v>188125557</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -11377,9 +11412,9 @@
         <v>188125328</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -11427,9 +11462,9 @@
         <v>188125376</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -11477,9 +11512,9 @@
         <v>188125442</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -11527,9 +11562,9 @@
         <v>94063029</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -11577,9 +11612,9 @@
         <v>94062508</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -11627,9 +11662,9 @@
         <v>94062493</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -11677,9 +11712,9 @@
         <v>94062845</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -11727,9 +11762,9 @@
         <v>94062871</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -11777,9 +11812,9 @@
         <v>94062313</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -11827,9 +11862,9 @@
         <v>94062689</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -11877,9 +11912,9 @@
         <v>94062715</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -11927,9 +11962,9 @@
         <v>47031434</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -11977,9 +12012,9 @@
         <v>47031565</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -12027,9 +12062,9 @@
         <v>47031233</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>16</v>
@@ -12077,9 +12112,9 @@
         <v>47031345</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>16</v>
@@ -12127,9 +12162,9 @@
         <v>47031308</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>16</v>
@@ -12177,9 +12212,9 @@
         <v>47031245</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -12227,9 +12262,9 @@
         <v>47031398</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -12277,9 +12312,9 @@
         <v>47031507</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -12327,9 +12362,9 @@
         <v>47031382</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>16</v>
@@ -12377,9 +12412,9 @@
         <v>47031371</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>16</v>
@@ -12427,9 +12462,9 @@
         <v>47031120</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -12477,9 +12512,9 @@
         <v>47031221</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>16</v>
@@ -12527,9 +12562,9 @@
         <v>47031324</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>16</v>
@@ -12577,9 +12612,9 @@
         <v>47031359</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>16</v>
@@ -12627,9 +12662,9 @@
         <v>47031392</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -12677,9 +12712,9 @@
         <v>47031445</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -12727,9 +12762,9 @@
         <v>23515660</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -12777,9 +12812,9 @@
         <v>23515706</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>32</v>
@@ -12827,9 +12862,9 @@
         <v>23515974</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -12877,9 +12912,9 @@
         <v>23515615</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>32</v>
@@ -12927,9 +12962,9 @@
         <v>23515600</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B38">
         <v>32</v>
@@ -12977,9 +13012,9 @@
         <v>23515592</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39">
         <v>32</v>
@@ -13027,9 +13062,9 @@
         <v>23515668</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B40">
         <v>32</v>
@@ -13077,9 +13112,9 @@
         <v>23515679</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>32</v>
@@ -13127,9 +13162,9 @@
         <v>23515687</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>32</v>
@@ -13177,9 +13212,9 @@
         <v>23515642</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>32</v>
@@ -13227,9 +13262,9 @@
         <v>23515634</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <v>32</v>
@@ -13277,9 +13312,9 @@
         <v>23515631</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>32</v>
@@ -13327,9 +13362,9 @@
         <v>23515678</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>32</v>
@@ -13377,9 +13412,9 @@
         <v>23515678</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>32</v>
@@ -13427,9 +13462,9 @@
         <v>23515780</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>32</v>
@@ -13477,9 +13512,9 @@
         <v>23515755</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B49">
         <v>32</v>
@@ -13527,9 +13562,9 @@
         <v>23515716</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>32</v>
@@ -13577,9 +13612,9 @@
         <v>23515678</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>32</v>
@@ -13627,9 +13662,9 @@
         <v>23515702</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>32</v>
@@ -13677,9 +13712,9 @@
         <v>23515701</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>32</v>
@@ -13727,9 +13762,9 @@
         <v>23515536</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>32</v>
@@ -13777,9 +13812,9 @@
         <v>23515584</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>32</v>
@@ -13827,9 +13862,9 @@
         <v>23515614</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B56">
         <v>32</v>
@@ -13877,9 +13912,9 @@
         <v>23515691</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B57">
         <v>32</v>
@@ -13927,9 +13962,9 @@
         <v>23515630</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B58">
         <v>32</v>
@@ -13977,9 +14012,9 @@
         <v>23515634</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B59">
         <v>32</v>
@@ -14027,9 +14062,9 @@
         <v>23515666</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B60">
         <v>32</v>
@@ -14077,9 +14112,9 @@
         <v>23515709</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61">
         <v>32</v>
@@ -14127,9 +14162,9 @@
         <v>23515714</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B62">
         <v>32</v>
@@ -14177,9 +14212,9 @@
         <v>23515698</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63">
         <v>32</v>
@@ -14227,9 +14262,9 @@
         <v>23515686</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64">
         <v>32</v>
@@ -14279,6 +14314,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14286,14 +14326,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14322,30 +14364,30 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14393,9 +14435,9 @@
         <v>178001926</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -14443,9 +14485,9 @@
         <v>178002910</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -14493,9 +14535,9 @@
         <v>89001151</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -14543,9 +14585,9 @@
         <v>89000761</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -14593,9 +14635,9 @@
         <v>89002142</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -14643,9 +14685,9 @@
         <v>89000026</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -14693,9 +14735,9 @@
         <v>44500585</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -14743,9 +14785,9 @@
         <v>44500573</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -14793,9 +14835,9 @@
         <v>44500233</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -14843,9 +14885,9 @@
         <v>44500573</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -14893,9 +14935,9 @@
         <v>44500528</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -14943,9 +14985,9 @@
         <v>44500790</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -14993,9 +15035,9 @@
         <v>44500083</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -15043,9 +15085,9 @@
         <v>44500599</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -15093,9 +15135,9 @@
         <v>22250248</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -15143,9 +15185,9 @@
         <v>22250299</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -15193,9 +15235,9 @@
         <v>22250500</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -15243,9 +15285,9 @@
         <v>22250127</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -15293,9 +15335,9 @@
         <v>22250104</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -15343,9 +15385,9 @@
         <v>22250113</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -15393,9 +15435,9 @@
         <v>22250218</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -15443,9 +15485,9 @@
         <v>22250273</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -15493,9 +15535,9 @@
         <v>22250278</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -15543,9 +15585,9 @@
         <v>22250252</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -15593,9 +15635,9 @@
         <v>22250328</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -15643,9 +15685,9 @@
         <v>22250012</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -15693,9 +15735,9 @@
         <v>22250042</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -15743,9 +15785,9 @@
         <v>22250809</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -15793,9 +15835,9 @@
         <v>22250062</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -15843,9 +15885,9 @@
         <v>22250147</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -15893,9 +15935,9 @@
         <v>11125142</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B33">
         <v>16</v>
@@ -15943,9 +15985,9 @@
         <v>11125130</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B34">
         <v>16</v>
@@ -15993,9 +16035,9 @@
         <v>11125140</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -16043,9 +16085,9 @@
         <v>11125195</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B36">
         <v>16</v>
@@ -16093,9 +16135,9 @@
         <v>11125232</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B37">
         <v>16</v>
@@ -16143,9 +16185,9 @@
         <v>11125254</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B38">
         <v>16</v>
@@ -16193,9 +16235,9 @@
         <v>11125042</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B39">
         <v>16</v>
@@ -16243,9 +16285,9 @@
         <v>11125025</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B40">
         <v>16</v>
@@ -16293,9 +16335,9 @@
         <v>11125068</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B41">
         <v>16</v>
@@ -16343,9 +16385,9 @@
         <v>11125074</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B42">
         <v>16</v>
@@ -16393,9 +16435,9 @@
         <v>11125064</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -16443,9 +16485,9 @@
         <v>11125093</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B44">
         <v>16</v>
@@ -16493,9 +16535,9 @@
         <v>11125136</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B45">
         <v>16</v>
@@ -16543,9 +16585,9 @@
         <v>11125152</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B46">
         <v>16</v>
@@ -16593,9 +16635,9 @@
         <v>11125122</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B47">
         <v>16</v>
@@ -16643,9 +16685,9 @@
         <v>11125121</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B48">
         <v>16</v>
@@ -16693,9 +16735,9 @@
         <v>11125652</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B49">
         <v>16</v>
@@ -16743,9 +16785,9 @@
         <v>11125096</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B50">
         <v>16</v>
@@ -16793,9 +16835,9 @@
         <v>11125054</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B51">
         <v>16</v>
@@ -16843,9 +16885,9 @@
         <v>11125156</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B52">
         <v>16</v>
@@ -16893,9 +16935,9 @@
         <v>11125152</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B53">
         <v>16</v>
@@ -16943,9 +16985,9 @@
         <v>11125240</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B54">
         <v>16</v>
@@ -16993,9 +17035,9 @@
         <v>11125046</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B55">
         <v>16</v>
@@ -17043,9 +17085,9 @@
         <v>11125007</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B56">
         <v>16</v>
@@ -17093,9 +17135,9 @@
         <v>11125134</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B57">
         <v>16</v>
@@ -17143,9 +17185,9 @@
         <v>11125040</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B58">
         <v>16</v>
@@ -17193,9 +17235,9 @@
         <v>11125020</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B59">
         <v>16</v>
@@ -17243,9 +17285,9 @@
         <v>11125043</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B60">
         <v>16</v>
@@ -17293,9 +17335,9 @@
         <v>11125077</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B61">
         <v>16</v>
@@ -17343,9 +17385,9 @@
         <v>11125126</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B62">
         <v>16</v>
@@ -17393,9 +17435,9 @@
         <v>11125094</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B63">
         <v>16</v>
@@ -17443,9 +17485,9 @@
         <v>11125133</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B64">
         <v>32</v>
@@ -17493,9 +17535,9 @@
         <v>5562613</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B65">
         <v>32</v>
@@ -17543,9 +17585,9 @@
         <v>5562563</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B66">
         <v>32</v>
@@ -17593,9 +17635,9 @@
         <v>5562567</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B67">
         <v>32</v>
@@ -17643,9 +17685,9 @@
         <v>5562567</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B68">
         <v>32</v>
@@ -17693,9 +17735,9 @@
         <v>5562569</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B69">
         <v>32</v>
@@ -17743,9 +17785,9 @@
         <v>5562553</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70">
         <v>32</v>
@@ -17793,9 +17835,9 @@
         <v>5562593</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B71">
         <v>32</v>
@@ -17843,9 +17885,9 @@
         <v>5562619</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B72">
         <v>32</v>
@@ -17893,9 +17935,9 @@
         <v>5562637</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B73">
         <v>32</v>
@@ -17943,9 +17985,9 @@
         <v>5562614</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B74">
         <v>32</v>
@@ -17993,9 +18035,9 @@
         <v>5562607</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B75">
         <v>32</v>
@@ -18043,9 +18085,9 @@
         <v>5562621</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B76">
         <v>32</v>
@@ -18093,9 +18135,9 @@
         <v>5562517</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B77">
         <v>32</v>
@@ -18143,9 +18185,9 @@
         <v>5562525</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B78">
         <v>32</v>
@@ -18193,9 +18235,9 @@
         <v>5562517</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B79">
         <v>32</v>
@@ -18243,9 +18285,9 @@
         <v>5562552</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B80">
         <v>32</v>
@@ -18293,9 +18335,9 @@
         <v>5562541</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B81">
         <v>32</v>
@@ -18343,9 +18385,9 @@
         <v>5562541</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B82">
         <v>32</v>
@@ -18393,9 +18435,9 @@
         <v>5562519</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B83">
         <v>32</v>
@@ -18443,9 +18485,9 @@
         <v>5562535</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B84">
         <v>32</v>
@@ -18493,9 +18535,9 @@
         <v>5562561</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B85">
         <v>32</v>
@@ -18543,9 +18585,9 @@
         <v>5562555</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B86">
         <v>32</v>
@@ -18593,9 +18635,9 @@
         <v>5562535</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B87">
         <v>32</v>
@@ -18643,9 +18685,9 @@
         <v>5562540</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B88">
         <v>32</v>
@@ -18693,9 +18735,9 @@
         <v>5562515</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B89">
         <v>32</v>
@@ -18743,9 +18785,9 @@
         <v>5562549</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B90">
         <v>32</v>
@@ -18793,9 +18835,9 @@
         <v>5562555</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>32</v>
@@ -18843,9 +18885,9 @@
         <v>5562571</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B92">
         <v>32</v>
@@ -18893,9 +18935,9 @@
         <v>5562551</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B93">
         <v>32</v>
@@ -18943,9 +18985,9 @@
         <v>5562579</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B94">
         <v>32</v>
@@ -18993,9 +19035,9 @@
         <v>5562573</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B95">
         <v>32</v>
@@ -19043,9 +19085,9 @@
         <v>5562570</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B96">
         <v>32</v>
@@ -19093,9 +19135,9 @@
         <v>5562583</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B97">
         <v>32</v>
@@ -19143,9 +19185,9 @@
         <v>5562573</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B98">
         <v>32</v>
@@ -19193,9 +19235,9 @@
         <v>5562559</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>32</v>
@@ -19243,9 +19285,9 @@
         <v>5562531</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>32</v>
@@ -19293,9 +19335,9 @@
         <v>5562978</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B101">
         <v>32</v>
@@ -19343,9 +19385,9 @@
         <v>5562521</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>32</v>
@@ -19393,9 +19435,9 @@
         <v>5562527</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>32</v>
@@ -19443,9 +19485,9 @@
         <v>5562679</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B104">
         <v>32</v>
@@ -19493,9 +19535,9 @@
         <v>5562681</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B105">
         <v>32</v>
@@ -19543,9 +19585,9 @@
         <v>5562617</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B106">
         <v>32</v>
@@ -19593,9 +19635,9 @@
         <v>5562555</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B107">
         <v>32</v>
@@ -19643,9 +19685,9 @@
         <v>5562575</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B108">
         <v>32</v>
@@ -19693,9 +19735,9 @@
         <v>5562511</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B109">
         <v>32</v>
@@ -19743,9 +19785,9 @@
         <v>5562533</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B110">
         <v>32</v>
@@ -19793,9 +19835,9 @@
         <v>5562579</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B111">
         <v>32</v>
@@ -19843,9 +19885,9 @@
         <v>5562510</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B112">
         <v>32</v>
@@ -19893,9 +19935,9 @@
         <v>5562497</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B113">
         <v>32</v>
@@ -19943,9 +19985,9 @@
         <v>5562511</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B114">
         <v>32</v>
@@ -19993,9 +20035,9 @@
         <v>5562493</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B115">
         <v>32</v>
@@ -20043,9 +20085,9 @@
         <v>5562493</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B116">
         <v>32</v>
@@ -20093,9 +20135,9 @@
         <v>5562499</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B117">
         <v>32</v>
@@ -20143,9 +20185,9 @@
         <v>5562507</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B118">
         <v>32</v>
@@ -20193,9 +20235,9 @@
         <v>5562543</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B119">
         <v>32</v>
@@ -20243,9 +20285,9 @@
         <v>5562516</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B120">
         <v>32</v>
@@ -20293,9 +20335,9 @@
         <v>5562551</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16">
       <c r="A121" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B121">
         <v>32</v>
@@ -20343,9 +20385,9 @@
         <v>5562553</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16">
       <c r="A122" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B122">
         <v>32</v>
@@ -20393,9 +20435,9 @@
         <v>5562561</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16">
       <c r="A123" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B123">
         <v>32</v>
@@ -20443,9 +20485,9 @@
         <v>5562535</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16">
       <c r="A124" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B124">
         <v>32</v>
@@ -20493,9 +20535,9 @@
         <v>5562555</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16">
       <c r="A125" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B125">
         <v>32</v>
@@ -20543,9 +20585,9 @@
         <v>5562519</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16">
       <c r="A126" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B126">
         <v>32</v>
@@ -20593,9 +20635,9 @@
         <v>5562554</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16">
       <c r="A127" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B127">
         <v>32</v>
@@ -20645,6 +20687,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -20656,49 +20703,49 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2">
         <v>752495240</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3">
         <v>1401775</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6">
         <v>177999203</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C7">
         <v>612220</v>
@@ -20706,6 +20753,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -20713,57 +20765,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" t="s">
         <v>209</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>210</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>211</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>212</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>213</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>214</v>
       </c>
-      <c r="G1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <f>Regular_small!H2/Optimistic_small!H2</f>
         <v>2.0697855859571357</v>
@@ -20797,7 +20849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3">
         <f>Regular_small!H3/Optimistic_small!H3</f>
         <v>1.9826113136848549</v>
@@ -20831,7 +20883,7 @@
         <v>0.99999956944381219</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4">
         <f>Regular_small!H4/Optimistic_small!H4</f>
         <v>1.5834646777148764</v>
@@ -20865,7 +20917,7 @@
         <v>1.0000012119383004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5">
         <f>Regular_small!H5/Optimistic_small!H5</f>
         <v>1.568137930902048</v>
@@ -20899,7 +20951,7 @@
         <v>1.0000014032936302</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6">
         <f>Regular_small!H6/Optimistic_small!H6</f>
         <v>1.7411169647875391</v>
@@ -20933,7 +20985,7 @@
         <v>0.9999994418708994</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7">
         <f>Regular_small!H7/Optimistic_small!H7</f>
         <v>1.7972796733724827</v>
@@ -20967,7 +21019,7 @@
         <v>1.0000012757250827</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8">
         <f>Regular_small!H8/Optimistic_small!H8</f>
         <v>1.581363385435012</v>
@@ -21001,7 +21053,7 @@
         <v>0.99999897942341121</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9">
         <f>Regular_small!H9/Optimistic_small!H9</f>
         <v>1.606563670991862</v>
@@ -21035,7 +21087,7 @@
         <v>0.99999887312480262</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10">
         <f>Regular_small!H10/Optimistic_small!H10</f>
         <v>1.6264630333582686</v>
@@ -21069,7 +21121,7 @@
         <v>0.99999771432187201</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11">
         <f>Regular_small!H11/Optimistic_small!H11</f>
         <v>1.5865189584898951</v>
@@ -21103,7 +21155,7 @@
         <v>0.99999867111541785</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12">
         <f>Regular_small!H12/Optimistic_small!H12</f>
         <v>1.4806119367017609</v>
@@ -21137,7 +21189,7 @@
         <v>0.99999835220212507</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13">
         <f>Regular_small!H13/Optimistic_small!H13</f>
         <v>1.4911319010611852</v>
@@ -21171,7 +21223,7 @@
         <v>1.0000036783267925</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14">
         <f>Regular_small!H14/Optimistic_small!H14</f>
         <v>1.4831018450688549</v>
@@ -21205,7 +21257,7 @@
         <v>1.0000002976723679</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15">
         <f>Regular_small!H15/Optimistic_small!H15</f>
         <v>1.4788111458331954</v>
@@ -21239,7 +21291,7 @@
         <v>0.999999596021243</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16">
         <f>Regular_small!H16/Optimistic_small!H16</f>
         <v>1.4868475174658271</v>
@@ -21273,7 +21325,7 @@
         <v>1.0000005740752405</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="A17">
         <f>Regular_small!H17/Optimistic_small!H17</f>
         <v>1.5108011824662086</v>
@@ -21307,7 +21359,7 @@
         <v>1.0000029341549477</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8">
       <c r="A18">
         <f>Regular_small!H18/Optimistic_small!H18</f>
         <v>1.5246372871265659</v>
@@ -21341,7 +21393,7 @@
         <v>1.0000036145114213</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8">
       <c r="A19">
         <f>Regular_small!H19/Optimistic_small!H19</f>
         <v>1.4888026482238734</v>
@@ -21375,7 +21427,7 @@
         <v>1.0000012544712598</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20">
         <f>Regular_small!H20/Optimistic_small!H20</f>
         <v>1.4964141183883812</v>
@@ -21409,7 +21461,7 @@
         <v>1.0000014245591835</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8">
       <c r="A21">
         <f>Regular_small!H21/Optimistic_small!H21</f>
         <v>1.4753811254101938</v>
@@ -21443,7 +21495,7 @@
         <v>0.99999789505635484</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f>Regular_small!H22/Optimistic_small!H22</f>
         <v>1.5154319680721553</v>
@@ -21477,7 +21529,7 @@
         <v>1.0000043162426355</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23">
         <f>Regular_small!H23/Optimistic_small!H23</f>
         <v>1.5441663768247849</v>
@@ -21511,7 +21563,7 @@
         <v>1.0000034444521388</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24">
         <f>Regular_small!H24/Optimistic_small!H24</f>
         <v>1.6213773399875673</v>
@@ -21545,7 +21597,7 @@
         <v>1.0000052942223683</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="A25">
         <f>Regular_small!H25/Optimistic_small!H25</f>
         <v>1.5459678796336387</v>
@@ -21579,7 +21631,7 @@
         <v>0.99999859670960722</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="A26">
         <f>Regular_small!H26/Optimistic_small!H26</f>
         <v>1.588338847286773</v>
@@ -21613,7 +21665,7 @@
         <v>1.0000012969849268</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8">
       <c r="A27">
         <f>Regular_small!H27/Optimistic_small!H27</f>
         <v>1.5455782268211695</v>
@@ -21647,7 +21699,7 @@
         <v>1.0000020837157466</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8">
       <c r="A28">
         <f>Regular_small!H28/Optimistic_small!H28</f>
         <v>1.5534248781103042</v>
@@ -21681,7 +21733,7 @@
         <v>0.99999812892788265</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8">
       <c r="A29">
         <f>Regular_small!H29/Optimistic_small!H29</f>
         <v>1.5026612185235189</v>
@@ -21715,7 +21767,7 @@
         <v>1.0000039972876278</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8">
       <c r="A30">
         <f>Regular_small!H30/Optimistic_small!H30</f>
         <v>1.6571936062039918</v>
@@ -21749,7 +21801,7 @@
         <v>0.99999895816119955</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8">
       <c r="A31">
         <f>Regular_small!H31/Optimistic_small!H31</f>
         <v>1.5644376395318782</v>
@@ -21783,7 +21835,7 @@
         <v>0.99998834856368835</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8">
       <c r="A32">
         <f>Regular_small!H32/Optimistic_small!H32</f>
         <v>1.0635687830655329</v>
@@ -21817,7 +21869,7 @@
         <v>1.0000050178387356</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8">
       <c r="A33">
         <f>Regular_small!H33/Optimistic_small!H33</f>
         <v>1.1162135754428582</v>
@@ -21851,7 +21903,7 @@
         <v>0.99999170785664848</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8">
       <c r="A34">
         <f>Regular_small!H34/Optimistic_small!H34</f>
         <v>0.9097089219990464</v>
@@ -21885,7 +21937,7 @@
         <v>0.999995875197071</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8">
       <c r="A35">
         <f>Regular_small!H35/Optimistic_small!H35</f>
         <v>1.1415555730372065</v>
@@ -21919,7 +21971,7 @@
         <v>1.0000052302912104</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8">
       <c r="A36">
         <f>Regular_small!H36/Optimistic_small!H36</f>
         <v>1.0261590464954886</v>
@@ -21953,7 +22005,7 @@
         <v>1.0000031042926669</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8">
       <c r="A37">
         <f>Regular_small!H37/Optimistic_small!H37</f>
         <v>0.99895156863795997</v>
@@ -21987,7 +22039,7 @@
         <v>1.0000012757364412</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8">
       <c r="A38">
         <f>Regular_small!H38/Optimistic_small!H38</f>
         <v>1.0130604522544246</v>
@@ -22021,7 +22073,7 @@
         <v>1.0000034444987911</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8">
       <c r="A39">
         <f>Regular_small!H39/Optimistic_small!H39</f>
         <v>1.0056882658367636</v>
@@ -22055,7 +22107,7 @@
         <v>1.0000029341728527</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8">
       <c r="A40">
         <f>Regular_small!H40/Optimistic_small!H40</f>
         <v>0.98664742380300463</v>
@@ -22089,7 +22141,7 @@
         <v>1.0000048052416426</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8">
       <c r="A41">
         <f>Regular_small!H41/Optimistic_small!H41</f>
         <v>1.0182578049638713</v>
@@ -22123,7 +22175,7 @@
         <v>0.99999902194882906</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8">
       <c r="A42">
         <f>Regular_small!H42/Optimistic_small!H42</f>
         <v>0.92874027652713642</v>
@@ -22157,7 +22209,7 @@
         <v>1.0000021687427276</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8">
       <c r="A43">
         <f>Regular_small!H43/Optimistic_small!H43</f>
         <v>1.0992063948367969</v>
@@ -22191,7 +22243,7 @@
         <v>1.0000039547748953</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8">
       <c r="A44">
         <f>Regular_small!H44/Optimistic_small!H44</f>
         <v>0.95607302012711104</v>
@@ -22225,7 +22277,7 @@
         <v>1.0000005953408118</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8">
       <c r="A45">
         <f>Regular_small!H45/Optimistic_small!H45</f>
         <v>1.0620191112826758</v>
@@ -22259,7 +22311,7 @@
         <v>0.99999506723171816</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8">
       <c r="A46">
         <f>Regular_small!H46/Optimistic_small!H46</f>
         <v>1.0092947961999501</v>
@@ -22293,7 +22345,7 @@
         <v>1.0000050178646613</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8">
       <c r="A47">
         <f>Regular_small!H47/Optimistic_small!H47</f>
         <v>1.1382629729768885</v>
@@ -22327,7 +22379,7 @@
         <v>1.0000043799394183</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8">
       <c r="A48">
         <f>Regular_small!H48/Optimistic_small!H48</f>
         <v>0.92316031653738595</v>
@@ -22361,7 +22413,7 @@
         <v>0.99999094254319354</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8">
       <c r="A49">
         <f>Regular_small!H49/Optimistic_small!H49</f>
         <v>1.4314778360389222</v>
@@ -22395,7 +22447,7 @@
         <v>0.99998252300457358</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8">
       <c r="A50">
         <f>Regular_small!H50/Optimistic_small!H50</f>
         <v>1.0699140785912704</v>
@@ -22429,7 +22481,7 @@
         <v>1.0000002126203713</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8">
       <c r="A51">
         <f>Regular_small!H51/Optimistic_small!H51</f>
         <v>1.081550219162158</v>
@@ -22463,7 +22515,7 @@
         <v>0.99999783128383279</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8">
       <c r="A52">
         <f>Regular_small!H52/Optimistic_small!H52</f>
         <v>1.0679649874818551</v>
@@ -22497,7 +22549,7 @@
         <v>0.9999968532384429</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8">
       <c r="A53">
         <f>Regular_small!H53/Optimistic_small!H53</f>
         <v>1.0043994499172009</v>
@@ -22531,7 +22583,7 @@
         <v>1.000004039876043</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8">
       <c r="A54">
         <f>Regular_small!H54/Optimistic_small!H54</f>
         <v>1.0380842168316127</v>
@@ -22565,7 +22617,7 @@
         <v>1.0000010205908889</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8">
       <c r="A55">
         <f>Regular_small!H55/Optimistic_small!H55</f>
         <v>1.0634431904449708</v>
@@ -22599,7 +22651,7 @@
         <v>0.99999468447715523</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8">
       <c r="A56">
         <f>Regular_small!H56/Optimistic_small!H56</f>
         <v>0.97110155927900332</v>
@@ -22633,7 +22685,7 @@
         <v>1.0000070165104444</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8">
       <c r="A57">
         <f>Regular_small!H57/Optimistic_small!H57</f>
         <v>1.2403045570517106</v>
@@ -22667,7 +22719,7 @@
         <v>1.0000032743839331</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8">
       <c r="A58">
         <f>Regular_small!H58/Optimistic_small!H58</f>
         <v>1.0844656723728237</v>
@@ -22701,7 +22753,7 @@
         <v>1.0000022963179775</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8">
       <c r="A59">
         <f>Regular_small!H59/Optimistic_small!H59</f>
         <v>1.3188472268485096</v>
@@ -22735,7 +22787,7 @@
         <v>0.99999783127350383</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8">
       <c r="A60">
         <f>Regular_small!H60/Optimistic_small!H60</f>
         <v>1.0482682811189812</v>
@@ -22769,7 +22821,7 @@
         <v>1.0000012757188643</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8">
       <c r="A61">
         <f>Regular_small!H61/Optimistic_small!H61</f>
         <v>1.0902228034036796</v>
@@ -22803,7 +22855,7 @@
         <v>1.0000014458141597</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8">
       <c r="A62">
         <f>Regular_small!H62/Optimistic_small!H62</f>
         <v>1.1575399618705895</v>
@@ -22837,7 +22889,7 @@
         <v>1.0000044650365314</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8">
       <c r="A63">
         <f>Regular_small!H63/Optimistic_small!H63</f>
         <v>1.066086449164813</v>
@@ -22871,7 +22923,7 @@
         <v>1.0000079945803548</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8">
       <c r="A64">
         <f>Regular_small!H64/Optimistic_small!H64</f>
         <v>1.1413060534954329</v>
@@ -22905,7 +22957,7 @@
         <v>0.99999600275027789</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7">
       <c r="A65">
         <f>Regular_small!H65/Optimistic_small!H65</f>
         <v>1.0388949004434378</v>
@@ -22923,7 +22975,7 @@
         <v>0.99999442725582433</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7">
       <c r="A66">
         <f>Regular_small!H66/Optimistic_small!H66</f>
         <v>1.012957353740505</v>
@@ -22941,7 +22993,7 @@
         <v>1.0000176174359403</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7">
       <c r="A67">
         <f>Regular_small!H67/Optimistic_small!H67</f>
         <v>1.0903010287239412</v>
@@ -22959,7 +23011,7 @@
         <v>1.0000104265764085</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7">
       <c r="A68">
         <f>Regular_small!H68/Optimistic_small!H68</f>
         <v>1.0989862160374848</v>
@@ -22977,7 +23029,7 @@
         <v>1.0000125838126868</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7">
       <c r="A69">
         <f>Regular_small!H69/Optimistic_small!H69</f>
         <v>1.0056512313026968</v>
@@ -22995,7 +23047,7 @@
         <v>1.0000032358387114</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7">
       <c r="A70">
         <f>Regular_small!H70/Optimistic_small!H70</f>
         <v>1.0880577237764084</v>
@@ -23013,7 +23065,7 @@
         <v>1.0000208530665962</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7">
       <c r="A71">
         <f>Regular_small!H71/Optimistic_small!H71</f>
         <v>1.1152093541332952</v>
@@ -23031,7 +23083,7 @@
         <v>0.9999877763752566</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7">
       <c r="A72">
         <f>Regular_small!H72/Optimistic_small!H72</f>
         <v>1.0826698315664351</v>
@@ -23049,7 +23101,7 @@
         <v>1.0000077297381542</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7">
       <c r="A73">
         <f>Regular_small!H73/Optimistic_small!H73</f>
         <v>1.1039890018104144</v>
@@ -23067,7 +23119,7 @@
         <v>0.99999352860294577</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7">
       <c r="A74">
         <f>Regular_small!H74/Optimistic_small!H74</f>
         <v>1.1061297810685773</v>
@@ -23085,7 +23137,7 @@
         <v>0.99999766308897575</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7">
       <c r="A75">
         <f>Regular_small!H75/Optimistic_small!H75</f>
         <v>1.4080858354800982</v>
@@ -23103,7 +23155,7 @@
         <v>0.99999227031186777</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7">
       <c r="A76">
         <f>Regular_small!H76/Optimistic_small!H76</f>
         <v>1.2233591301788467</v>
@@ -23121,7 +23173,7 @@
         <v>1.0000073706924371</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7">
       <c r="A77">
         <f>Regular_small!H77/Optimistic_small!H77</f>
         <v>1.1520019490447209</v>
@@ -23139,7 +23191,7 @@
         <v>0.99997932677926327</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7">
       <c r="A78">
         <f>Regular_small!H78/Optimistic_small!H78</f>
         <v>1.1050773354718739</v>
@@ -23157,7 +23209,7 @@
         <v>1.0000077302384096</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7">
       <c r="A79">
         <f>Regular_small!H79/Optimistic_small!H79</f>
         <v>0.98553549927965411</v>
@@ -23175,7 +23227,7 @@
         <v>1.0000230108388242</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7">
       <c r="A80">
         <f>Regular_small!H80/Optimistic_small!H80</f>
         <v>1.0770677199149463</v>
@@ -23193,7 +23245,7 @@
         <v>1.0000079099118566</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7">
       <c r="A81">
         <f>Regular_small!H81/Optimistic_small!H81</f>
         <v>0.92798708784619788</v>
@@ -23211,7 +23263,7 @@
         <v>0.99999388787559451</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7">
       <c r="A82">
         <f>Regular_small!H82/Optimistic_small!H82</f>
         <v>1.1056387106083156</v>
@@ -23229,7 +23281,7 @@
         <v>1.0000021572591591</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7">
       <c r="A83">
         <f>Regular_small!H83/Optimistic_small!H83</f>
         <v>1.2088185877568653</v>
@@ -23247,7 +23299,7 @@
         <v>1.0000086290149188</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7">
       <c r="A84">
         <f>Regular_small!H84/Optimistic_small!H84</f>
         <v>1.4636966536860998</v>
@@ -23265,7 +23317,7 @@
         <v>1.0000120445410725</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7">
       <c r="A85">
         <f>Regular_small!H85/Optimistic_small!H85</f>
         <v>1.135353417562154</v>
@@ -23283,7 +23335,7 @@
         <v>1.0000127636755143</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7">
       <c r="A86">
         <f>Regular_small!H86/Optimistic_small!H86</f>
         <v>1.2675347587549557</v>
@@ -23301,7 +23353,7 @@
         <v>0.99999388786680443</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7">
       <c r="A87">
         <f>Regular_small!H87/Optimistic_small!H87</f>
         <v>1.1229632891817896</v>
@@ -23319,7 +23371,7 @@
         <v>0.99998382101585326</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7">
       <c r="A88">
         <f>Regular_small!H88/Optimistic_small!H88</f>
         <v>1.086153284177594</v>
@@ -23337,7 +23389,7 @@
         <v>0.99996440643963014</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7">
       <c r="A89">
         <f>Regular_small!H89/Optimistic_small!H89</f>
         <v>1.3030786541312269</v>
@@ -23355,7 +23407,7 @@
         <v>0.99998687708157796</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7">
       <c r="A90">
         <f>Regular_small!H90/Optimistic_small!H90</f>
         <v>1.1124424049211308</v>
@@ -23373,7 +23425,7 @@
         <v>0.9999969439564762</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7">
       <c r="A91">
         <f>Regular_small!H91/Optimistic_small!H91</f>
         <v>1.0412421643375314</v>
@@ -23391,7 +23443,7 @@
         <v>1.0000104265595391</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7">
       <c r="A92">
         <f>Regular_small!H92/Optimistic_small!H92</f>
         <v>1.1471389868521402</v>
@@ -23409,7 +23461,7 @@
         <v>0.99998831519281994</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7">
       <c r="A93">
         <f>Regular_small!H93/Optimistic_small!H93</f>
         <v>1.1334029747609746</v>
@@ -23427,7 +23479,7 @@
         <v>1.0000125837493461</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7">
       <c r="A94">
         <f>Regular_small!H94/Optimistic_small!H94</f>
         <v>0.9011176723004356</v>
@@ -23445,7 +23497,7 @@
         <v>1.0000039548677682</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7">
       <c r="A95">
         <f>Regular_small!H95/Optimistic_small!H95</f>
         <v>1.0853460310139911</v>
@@ -23463,7 +23515,7 @@
         <v>0.99999478679707821</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7">
       <c r="A96">
         <f>Regular_small!H96/Optimistic_small!H96</f>
         <v>1.0594231797825691</v>
@@ -23481,7 +23533,7 @@
         <v>1.0000159993240736</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7">
       <c r="A97">
         <f>Regular_small!H97/Optimistic_small!H97</f>
         <v>0.6421384699044359</v>
@@ -23499,7 +23551,7 @@
         <v>1.000007730011897</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7">
       <c r="A98">
         <f>Regular_small!H98/Optimistic_small!H98</f>
         <v>1.0001262328464511</v>
@@ -23517,7 +23569,7 @@
         <v>1.0000079098251173</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7">
       <c r="A99">
         <f>Regular_small!H99/Optimistic_small!H99</f>
         <v>1.00722052833557</v>
@@ -23535,7 +23587,7 @@
         <v>0.9999973034546521</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7">
       <c r="A100">
         <f>Regular_small!H100/Optimistic_small!H100</f>
         <v>0.48930139398043188</v>
@@ -23553,7 +23605,7 @@
         <v>1.0002317195061445</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7">
       <c r="A101">
         <f>Regular_small!H101/Optimistic_small!H101</f>
         <v>1.0130611432136436</v>
@@ -23571,7 +23623,7 @@
         <v>0.99998004582270084</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7">
       <c r="A102">
         <f>Regular_small!H102/Optimistic_small!H102</f>
         <v>0.99265584097926762</v>
@@ -23589,7 +23641,7 @@
         <v>0.99997501252519649</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7">
       <c r="A103">
         <f>Regular_small!H103/Optimistic_small!H103</f>
         <v>0.86516328485751492</v>
@@ -23607,7 +23659,7 @@
         <v>1.0000557273816491</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7">
       <c r="A104">
         <f>Regular_small!H104/Optimistic_small!H104</f>
         <v>0.49282927272277915</v>
@@ -23625,7 +23677,7 @@
         <v>0.99999173137167918</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7">
       <c r="A105">
         <f>Regular_small!H105/Optimistic_small!H105</f>
         <v>1.0279418198510428</v>
@@ -23643,7 +23695,7 @@
         <v>0.99999748334197092</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7">
       <c r="A106">
         <f>Regular_small!H106/Optimistic_small!H106</f>
         <v>1.0194791547449356</v>
@@ -23661,7 +23713,7 @@
         <v>0.99998831525793619</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7">
       <c r="A107">
         <f>Regular_small!H107/Optimistic_small!H107</f>
         <v>1.0160589489532941</v>
@@ -23679,7 +23731,7 @@
         <v>0.99998148449416269</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7">
       <c r="A108">
         <f>Regular_small!H108/Optimistic_small!H108</f>
         <v>0.99496952784389969</v>
@@ -23697,7 +23749,7 @@
         <v>0.99999191032032797</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7">
       <c r="A109">
         <f>Regular_small!H109/Optimistic_small!H109</f>
         <v>0.98669623697574016</v>
@@ -23715,7 +23767,7 @@
         <v>0.9999973034565911</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7">
       <c r="A110">
         <f>Regular_small!H110/Optimistic_small!H110</f>
         <v>1.0970723924825627</v>
@@ -23733,7 +23785,7 @@
         <v>1.0000235498632399</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7">
       <c r="A111">
         <f>Regular_small!H111/Optimistic_small!H111</f>
         <v>1.1868857535253909</v>
@@ -23751,7 +23803,7 @@
         <v>0.99998094449851493</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7">
       <c r="A112">
         <f>Regular_small!H112/Optimistic_small!H112</f>
         <v>1.2029196507817412</v>
@@ -23769,7 +23821,7 @@
         <v>0.9999516432660821</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7">
       <c r="A113">
         <f>Regular_small!H113/Optimistic_small!H113</f>
         <v>1.0232477891449407</v>
@@ -23787,7 +23839,7 @@
         <v>0.99998489937048352</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7">
       <c r="A114">
         <f>Regular_small!H114/Optimistic_small!H114</f>
         <v>1.2332159314178681</v>
@@ -23805,7 +23857,7 @@
         <v>0.99980857759311759</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7">
       <c r="A115">
         <f>Regular_small!H115/Optimistic_small!H115</f>
         <v>1.1925125721492227</v>
@@ -23823,7 +23875,7 @@
         <v>0.99995577767387334</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7">
       <c r="A116">
         <f>Regular_small!H116/Optimistic_small!H116</f>
         <v>1.0215208503679476</v>
@@ -23841,7 +23893,7 @@
         <v>0.99998094439232121</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7">
       <c r="A117">
         <f>Regular_small!H117/Optimistic_small!H117</f>
         <v>1.0116542014826513</v>
@@ -23859,7 +23911,7 @@
         <v>0.99995973261738891</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7">
       <c r="A118">
         <f>Regular_small!H118/Optimistic_small!H118</f>
         <v>0.97535107509037577</v>
@@ -23877,7 +23929,7 @@
         <v>0.99996800212839776</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7">
       <c r="A119">
         <f>Regular_small!H119/Optimistic_small!H119</f>
         <v>0.99127980460371479</v>
@@ -23895,7 +23947,7 @@
         <v>0.99998561848685985</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7">
       <c r="A120">
         <f>Regular_small!H120/Optimistic_small!H120</f>
         <v>1.0638287881776709</v>
@@ -23913,7 +23965,7 @@
         <v>0.99999640465079986</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7">
       <c r="A121">
         <f>Regular_small!H121/Optimistic_small!H121</f>
         <v>1.1835508168908526</v>
@@ -23931,7 +23983,7 @@
         <v>0.99995020680354818</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7">
       <c r="A122">
         <f>Regular_small!H122/Optimistic_small!H122</f>
         <v>0.96530114599878136</v>
@@ -23949,7 +24001,7 @@
         <v>1.000003415571916</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7">
       <c r="A123">
         <f>Regular_small!H123/Optimistic_small!H123</f>
         <v>0.95777244356386348</v>
@@ -23967,7 +24019,7 @@
         <v>0.99995703691320104</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7">
       <c r="A124">
         <f>Regular_small!H124/Optimistic_small!H124</f>
         <v>0.98395743340438957</v>
@@ -23985,7 +24037,7 @@
         <v>0.99999298912451418</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7">
       <c r="A125">
         <f>Regular_small!H125/Optimistic_small!H125</f>
         <v>1.15347535866999</v>
@@ -24003,7 +24055,7 @@
         <v>0.9999627887779583</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7">
       <c r="A126">
         <f>Regular_small!H126/Optimistic_small!H126</f>
         <v>0.97239925942989758</v>
@@ -24021,7 +24073,7 @@
         <v>0.99999784279397008</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7">
       <c r="A127">
         <f>Regular_small!H127/Optimistic_small!H127</f>
         <v>0.98870721404100548</v>
@@ -24041,5 +24093,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>